--- a/CosmicCode/Data/Assets/Data_Game.xlsx
+++ b/CosmicCode/Data/Assets/Data_Game.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raicu\Desktop\CosmicCraft\Data\Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raicu\Desktop\CosmicCode\Data\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D5672-271D-4C29-B999-028969943131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572AB11-8AB2-4D22-A7F1-970CEE71DAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="263">
   <si>
     <t>correct_answers_python_c</t>
   </si>
@@ -1703,6 +1703,9 @@
   </si>
   <si>
     <t>answers_python_c4</t>
+  </si>
+  <si>
+    <t>correct_answers_javascript_a</t>
   </si>
 </sst>
 </file>
@@ -2061,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BH6" sqref="BH6"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,7 +2211,9 @@
       <c r="AE1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AF1" s="2"/>
+      <c r="AF1" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2" t="s">
         <v>217</v>
